--- a/DOCUMENT/FATIGUE/FATIGUE CALCULATION.xlsx
+++ b/DOCUMENT/FATIGUE/FATIGUE CALCULATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU LIEU E\Tai Lieu Hoc Tap\Chuyên Ngành\CAO HOC\FATIGUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\FATIGUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257DBD51-6FFF-4CBE-B476-073394357108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ACE46E-E899-47C9-A1ED-BA8294E2535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -546,13 +546,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -560,13 +563,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -574,13 +580,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -588,13 +597,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>10000</v>
+        <v>88600</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -603,13 +615,19 @@
       </c>
       <c r="C6">
         <f>C5/((C3-2*C2)*C4)</f>
-        <v>20</v>
+        <v>3.9203539823008851</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -618,10 +636,17 @@
       </c>
       <c r="C7">
         <f>3-3.13*(2*C2/C3)+3.66*(2*C2/C3)^2-1.53*(2*C2/C3)^3</f>
-        <v>2.1587499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.8295671354166663</v>
+      </c>
+      <c r="D7">
+        <f>D8/D6</f>
+        <v>3.2142857142857144</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -630,13 +655,20 @@
       </c>
       <c r="C8">
         <f>C7*C6</f>
-        <v>43.174999999999997</v>
+        <v>11.092904787518435</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>H7*H6</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -645,10 +677,14 @@
       </c>
       <c r="C9">
         <f>C5/(C3*C4)</f>
-        <v>10</v>
+        <v>3.6916666666666669</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
+      </c>
+      <c r="H9">
+        <f>H5/(H3*H4)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -714,11 +750,11 @@
       </c>
       <c r="E5" s="4">
         <f>D5/General!$C$6</f>
-        <v>2.0660499999999997</v>
+        <v>10.540119638826184</v>
       </c>
       <c r="F5" s="5">
         <f>ABS(General!$C$7-FULL!E5)/General!$C$7*100</f>
-        <v>4.294151708164458</v>
+        <v>272.49936595952528</v>
       </c>
       <c r="G5" s="3">
         <v>4.45</v>
@@ -736,11 +772,11 @@
       </c>
       <c r="E6" s="4">
         <f>D6/General!$C$6</f>
-        <v>2.1391499999999999</v>
+        <v>10.913045146726862</v>
       </c>
       <c r="F6" s="5">
         <f>ABS(General!$C$7-FULL!E6)/General!$C$7*100</f>
-        <v>0.90793283149971338</v>
+        <v>285.67896163806228</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -758,11 +794,11 @@
       </c>
       <c r="E7" s="4">
         <f>D7/General!$C$6</f>
-        <v>2.1749999999999998</v>
+        <v>11.095936794582393</v>
       </c>
       <c r="F7" s="5">
         <f>ABS(General!$C$7-FULL!E7)/General!$C$7*100</f>
-        <v>0.75275043427909094</v>
+        <v>292.14255267876746</v>
       </c>
       <c r="G7" s="3">
         <v>41</v>
@@ -780,11 +816,11 @@
       </c>
       <c r="E8" s="4">
         <f>D8/General!$C$6</f>
-        <v>2.1710000000000003</v>
+        <v>11.075530474040633</v>
       </c>
       <c r="F8" s="6">
         <f>ABS(General!$C$7-FULL!E8)/General!$C$7*100</f>
-        <v>0.56745801968733378</v>
+        <v>291.42137097269159</v>
       </c>
       <c r="G8" s="3">
         <v>4.53</v>
@@ -802,11 +838,11 @@
       </c>
       <c r="E9" s="4">
         <f>D9/General!$C$6</f>
-        <v>2.1750499999999997</v>
+        <v>11.096191873589165</v>
       </c>
       <c r="F9" s="5">
         <f>ABS(General!$C$7-FULL!E9)/General!$C$7*100</f>
-        <v>0.75506658946148286</v>
+        <v>292.15156745009347</v>
       </c>
       <c r="G9" s="3">
         <v>6.85</v>
@@ -849,11 +885,11 @@
       </c>
       <c r="E14" s="4">
         <f>D14/General!$C$6</f>
-        <v>2.0405000000000002</v>
+        <v>10.409774266365689</v>
       </c>
       <c r="F14" s="5">
         <f>ABS(General!$C$7-FULL!E14)/General!$C$7*100</f>
-        <v>5.4777070063694149</v>
+        <v>267.89281781196559</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
@@ -871,11 +907,11 @@
       </c>
       <c r="E15" s="4">
         <f>D15/General!$C$6</f>
-        <v>2.1261999999999999</v>
+        <v>10.846979683972911</v>
       </c>
       <c r="F15" s="5">
         <f>ABS(General!$C$7-FULL!E15)/General!$C$7*100</f>
-        <v>1.5078170237405941</v>
+        <v>283.34413586464154</v>
       </c>
       <c r="G15" s="3">
         <v>4.4000000000000004</v>
@@ -893,11 +929,11 @@
       </c>
       <c r="E16" s="4">
         <f>D16/General!$C$6</f>
-        <v>2.169</v>
+        <v>11.065327313769751</v>
       </c>
       <c r="F16" s="5">
         <f>ABS(General!$C$7-FULL!E16)/General!$C$7*100</f>
-        <v>0.4748118123914345</v>
+        <v>291.06078011965366</v>
       </c>
       <c r="G16" s="3">
         <v>7</v>
@@ -915,11 +951,11 @@
       </c>
       <c r="E17" s="8">
         <f>D17/General!$C$6</f>
-        <v>2.1582499999999998</v>
+        <v>11.01048532731377</v>
       </c>
       <c r="F17" s="6">
         <f>ABS(General!$C$7-FULL!E17)/General!$C$7*100</f>
-        <v>2.3161551823979942E-2</v>
+        <v>289.12260428457466</v>
       </c>
       <c r="G17" s="3">
         <v>4.45</v>
@@ -937,11 +973,11 @@
       </c>
       <c r="E18" s="4">
         <f>D18/General!$C$6</f>
-        <v>2.1673999999999998</v>
+        <v>11.057164785553047</v>
       </c>
       <c r="F18" s="5">
         <f>ABS(General!$C$7-FULL!E18)/General!$C$7*100</f>
-        <v>0.40069484655471099</v>
+        <v>290.77230743722333</v>
       </c>
       <c r="G18" s="3">
         <v>5.44</v>
